--- a/Code/Results/Cases/Case_3_189/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_189/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005412656178486</v>
+        <v>1.028396595994657</v>
       </c>
       <c r="D2">
-        <v>1.024906213466976</v>
+        <v>1.037503117341549</v>
       </c>
       <c r="E2">
-        <v>1.011155388806233</v>
+        <v>1.028371722273546</v>
       </c>
       <c r="F2">
-        <v>1.025635897207717</v>
+        <v>1.046158541185202</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04734839296245</v>
+        <v>1.036782525493392</v>
       </c>
       <c r="J2">
-        <v>1.027432672135845</v>
+        <v>1.03354914486589</v>
       </c>
       <c r="K2">
-        <v>1.036029136270458</v>
+        <v>1.040293816227196</v>
       </c>
       <c r="L2">
-        <v>1.022461468577217</v>
+        <v>1.031188732285669</v>
       </c>
       <c r="M2">
-        <v>1.03674927277537</v>
+        <v>1.048924760530941</v>
       </c>
       <c r="N2">
-        <v>1.013086257214857</v>
+        <v>1.015204788863329</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.0090856035266</v>
+        <v>1.029173548958836</v>
       </c>
       <c r="D3">
-        <v>1.027741636696578</v>
+        <v>1.038127352388706</v>
       </c>
       <c r="E3">
-        <v>1.01402968154916</v>
+        <v>1.029026977326274</v>
       </c>
       <c r="F3">
-        <v>1.029372768916248</v>
+        <v>1.047015410621764</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048501602796455</v>
+        <v>1.036969898359139</v>
       </c>
       <c r="J3">
-        <v>1.029331613320457</v>
+        <v>1.03396757382998</v>
       </c>
       <c r="K3">
-        <v>1.038031448493642</v>
+        <v>1.040728363716059</v>
       </c>
       <c r="L3">
-        <v>1.024486142755772</v>
+        <v>1.031652320913652</v>
       </c>
       <c r="M3">
-        <v>1.039643122968324</v>
+        <v>1.049593098310582</v>
       </c>
       <c r="N3">
-        <v>1.013719417426898</v>
+        <v>1.015343802872476</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011419470686476</v>
+        <v>1.02967686913955</v>
       </c>
       <c r="D4">
-        <v>1.029545649736427</v>
+        <v>1.038531741333731</v>
       </c>
       <c r="E4">
-        <v>1.015861747901768</v>
+        <v>1.029451863654791</v>
       </c>
       <c r="F4">
-        <v>1.031752230622694</v>
+        <v>1.047570886002336</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049224409706879</v>
+        <v>1.037090052961926</v>
       </c>
       <c r="J4">
-        <v>1.030535508307238</v>
+        <v>1.034238226559727</v>
       </c>
       <c r="K4">
-        <v>1.039300097275006</v>
+        <v>1.041009320332642</v>
       </c>
       <c r="L4">
-        <v>1.025772431899586</v>
+        <v>1.031952501493061</v>
       </c>
       <c r="M4">
-        <v>1.04148196212251</v>
+        <v>1.050025937035922</v>
       </c>
       <c r="N4">
-        <v>1.014120787280735</v>
+        <v>1.01543370115611</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012390684900568</v>
+        <v>1.029888601902568</v>
       </c>
       <c r="D5">
-        <v>1.030296894160383</v>
+        <v>1.038701856400068</v>
       </c>
       <c r="E5">
-        <v>1.016625474835113</v>
+        <v>1.029630697621868</v>
       </c>
       <c r="F5">
-        <v>1.032743595104796</v>
+        <v>1.047804650822118</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049522772827853</v>
+        <v>1.03714030459179</v>
       </c>
       <c r="J5">
-        <v>1.031035816625563</v>
+        <v>1.03435198403223</v>
       </c>
       <c r="K5">
-        <v>1.039827123369021</v>
+        <v>1.041127379325015</v>
       </c>
       <c r="L5">
-        <v>1.026307626252635</v>
+        <v>1.032078745728962</v>
       </c>
       <c r="M5">
-        <v>1.042247156398737</v>
+        <v>1.050207991503741</v>
       </c>
       <c r="N5">
-        <v>1.014287574706185</v>
+        <v>1.015471481231301</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012553181355039</v>
+        <v>1.029924160743819</v>
       </c>
       <c r="D6">
-        <v>1.030422616652157</v>
+        <v>1.038730425861348</v>
       </c>
       <c r="E6">
-        <v>1.016753333428577</v>
+        <v>1.02966073699363</v>
       </c>
       <c r="F6">
-        <v>1.032909531622798</v>
+        <v>1.047843915151596</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049572549223386</v>
+        <v>1.037148726710147</v>
       </c>
       <c r="J6">
-        <v>1.031119483886545</v>
+        <v>1.034371082912848</v>
       </c>
       <c r="K6">
-        <v>1.039915247241229</v>
+        <v>1.04114719867392</v>
       </c>
       <c r="L6">
-        <v>1.026397165532756</v>
+        <v>1.032099945484094</v>
       </c>
       <c r="M6">
-        <v>1.042375181240726</v>
+        <v>1.050238564421085</v>
       </c>
       <c r="N6">
-        <v>1.014315466065894</v>
+        <v>1.015477823886975</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011432486784349</v>
+        <v>1.029679697787208</v>
       </c>
       <c r="D7">
-        <v>1.029555715803726</v>
+        <v>1.038534013989894</v>
       </c>
       <c r="E7">
-        <v>1.015871978061653</v>
+        <v>1.029454252413369</v>
       </c>
       <c r="F7">
-        <v>1.031765512148817</v>
+        <v>1.047574008627196</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049228417954682</v>
+        <v>1.037090725454718</v>
       </c>
       <c r="J7">
-        <v>1.030542216096401</v>
+        <v>1.034239746692234</v>
       </c>
       <c r="K7">
-        <v>1.03930716404346</v>
+        <v>1.041010898061192</v>
       </c>
       <c r="L7">
-        <v>1.025779604865716</v>
+        <v>1.031954188186631</v>
       </c>
       <c r="M7">
-        <v>1.041492217274887</v>
+        <v>1.050028369308895</v>
       </c>
       <c r="N7">
-        <v>1.014123023500014</v>
+        <v>1.015434206027621</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.006662985607033</v>
+        <v>1.028659049773856</v>
       </c>
       <c r="D8">
-        <v>1.025870927989709</v>
+        <v>1.037713982648078</v>
       </c>
       <c r="E8">
-        <v>1.01213263489128</v>
+        <v>1.02859298284202</v>
       </c>
       <c r="F8">
-        <v>1.026906935071289</v>
+        <v>1.046447911042402</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047743029495977</v>
+        <v>1.036846073829113</v>
       </c>
       <c r="J8">
-        <v>1.028079658629735</v>
+        <v>1.033690574576061</v>
       </c>
       <c r="K8">
-        <v>1.036711503200392</v>
+        <v>1.04044071927219</v>
       </c>
       <c r="L8">
-        <v>1.023150732096153</v>
+        <v>1.031345360370556</v>
       </c>
       <c r="M8">
-        <v>1.037734363802663</v>
+        <v>1.049150548763816</v>
       </c>
       <c r="N8">
-        <v>1.01330198860739</v>
+        <v>1.015251780013753</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9979169372605433</v>
+        <v>1.026865057268223</v>
       </c>
       <c r="D9">
-        <v>1.019134047173247</v>
+        <v>1.036272643238473</v>
       </c>
       <c r="E9">
-        <v>1.005322132312472</v>
+        <v>1.027082235645842</v>
       </c>
       <c r="F9">
-        <v>1.018037798500591</v>
+        <v>1.04447151408279</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044941847485058</v>
+        <v>1.036406670139277</v>
       </c>
       <c r="J9">
-        <v>1.023543468890781</v>
+        <v>1.032722163307501</v>
       </c>
       <c r="K9">
-        <v>1.031924132374039</v>
+        <v>1.039434331875316</v>
       </c>
       <c r="L9">
-        <v>1.018329447778491</v>
+        <v>1.030274181407679</v>
       </c>
       <c r="M9">
-        <v>1.030844850098055</v>
+        <v>1.047606702103299</v>
       </c>
       <c r="N9">
-        <v>1.011789322847709</v>
+        <v>1.014929935750306</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9918360582916309</v>
+        <v>1.025672209217339</v>
       </c>
       <c r="D10">
-        <v>1.014466085061118</v>
+        <v>1.035314323523389</v>
       </c>
       <c r="E10">
-        <v>1.000620655124801</v>
+        <v>1.026079837437543</v>
       </c>
       <c r="F10">
-        <v>1.011899839594086</v>
+        <v>1.043159372078729</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042944166145622</v>
+        <v>1.036108207432216</v>
       </c>
       <c r="J10">
-        <v>1.020377371324649</v>
+        <v>1.032076161905519</v>
       </c>
       <c r="K10">
-        <v>1.02857897140667</v>
+        <v>1.03876237372915</v>
       </c>
       <c r="L10">
-        <v>1.014978712486615</v>
+        <v>1.029561258083202</v>
       </c>
       <c r="M10">
-        <v>1.026057512092638</v>
+        <v>1.046579584576933</v>
       </c>
       <c r="N10">
-        <v>1.010733455695565</v>
+        <v>1.014715140411139</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9891387506192608</v>
+        <v>1.025156462081797</v>
       </c>
       <c r="D11">
-        <v>1.012399865287104</v>
+        <v>1.034899994555398</v>
       </c>
       <c r="E11">
-        <v>0.9985437207300398</v>
+        <v>1.025646942692955</v>
       </c>
       <c r="F11">
-        <v>1.0091842789066</v>
+        <v>1.042592520338202</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042046665563791</v>
+        <v>1.035977669632167</v>
       </c>
       <c r="J11">
-        <v>1.018970456319517</v>
+        <v>1.031796358933096</v>
       </c>
       <c r="K11">
-        <v>1.027091666585256</v>
+        <v>1.03847118080998</v>
       </c>
       <c r="L11">
-        <v>1.013493152699556</v>
+        <v>1.02925285592062</v>
       </c>
       <c r="M11">
-        <v>1.023935046992632</v>
+        <v>1.04613535515377</v>
       </c>
       <c r="N11">
-        <v>1.010264263987672</v>
+        <v>1.014622082269961</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9881267556089858</v>
+        <v>1.024965007247248</v>
       </c>
       <c r="D12">
-        <v>1.011625350687895</v>
+        <v>1.034746190872969</v>
       </c>
       <c r="E12">
-        <v>0.9977658066105579</v>
+        <v>1.025486321099893</v>
       </c>
       <c r="F12">
-        <v>1.008166524792932</v>
+        <v>1.042382165958545</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041708267630435</v>
+        <v>1.035928987400708</v>
       </c>
       <c r="J12">
-        <v>1.018442253650002</v>
+        <v>1.03169241692192</v>
       </c>
       <c r="K12">
-        <v>1.026533165780118</v>
+        <v>1.038362985553196</v>
       </c>
       <c r="L12">
-        <v>1.012935935780603</v>
+        <v>1.029138347893506</v>
       </c>
       <c r="M12">
-        <v>1.023138921875491</v>
+        <v>1.045970428395712</v>
       </c>
       <c r="N12">
-        <v>1.010088116080825</v>
+        <v>1.014587509234082</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.988344296170629</v>
+        <v>1.025006069652503</v>
       </c>
       <c r="D13">
-        <v>1.011791809313527</v>
+        <v>1.034779177885244</v>
       </c>
       <c r="E13">
-        <v>0.9979329680167818</v>
+        <v>1.025520767035641</v>
       </c>
       <c r="F13">
-        <v>1.008385253662496</v>
+        <v>1.042427278620861</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041781084999859</v>
+        <v>1.035939438700616</v>
       </c>
       <c r="J13">
-        <v>1.018555812314668</v>
+        <v>1.031714713300717</v>
       </c>
       <c r="K13">
-        <v>1.026653243456697</v>
+        <v>1.038386195284744</v>
       </c>
       <c r="L13">
-        <v>1.013055709109691</v>
+        <v>1.029162908137137</v>
       </c>
       <c r="M13">
-        <v>1.023310049116981</v>
+        <v>1.04600580210355</v>
       </c>
       <c r="N13">
-        <v>1.010125986111678</v>
+        <v>1.014594925581425</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9890553073750312</v>
+        <v>1.025140633975878</v>
       </c>
       <c r="D14">
-        <v>1.012335988683576</v>
+        <v>1.034887279114435</v>
       </c>
       <c r="E14">
-        <v>0.9984795512226016</v>
+        <v>1.025633662084926</v>
       </c>
       <c r="F14">
-        <v>1.009100338485677</v>
+        <v>1.042575128295599</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04201879688509</v>
+        <v>1.035973649510216</v>
       </c>
       <c r="J14">
-        <v>1.018926910639202</v>
+        <v>1.03178776726535</v>
       </c>
       <c r="K14">
-        <v>1.027045625435436</v>
+        <v>1.038462238026292</v>
       </c>
       <c r="L14">
-        <v>1.013447204642565</v>
+        <v>1.029243389699182</v>
       </c>
       <c r="M14">
-        <v>1.023869398919443</v>
+        <v>1.046121720617498</v>
       </c>
       <c r="N14">
-        <v>1.010249742080068</v>
+        <v>1.01461922459416</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9894920335204888</v>
+        <v>1.02522355900445</v>
       </c>
       <c r="D15">
-        <v>1.012670335766558</v>
+        <v>1.034953896700107</v>
       </c>
       <c r="E15">
-        <v>0.998815456597645</v>
+        <v>1.025703243671014</v>
       </c>
       <c r="F15">
-        <v>1.009539711354277</v>
+        <v>1.042666249871686</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042164588527135</v>
+        <v>1.035994702147582</v>
       </c>
       <c r="J15">
-        <v>1.019154806558202</v>
+        <v>1.031832776841381</v>
       </c>
       <c r="K15">
-        <v>1.027286576631221</v>
+        <v>1.038509086106307</v>
       </c>
       <c r="L15">
-        <v>1.013687694244243</v>
+        <v>1.029292983219892</v>
       </c>
       <c r="M15">
-        <v>1.024212996739289</v>
+        <v>1.046193152472238</v>
       </c>
       <c r="N15">
-        <v>1.010325742453657</v>
+        <v>1.014634195091092</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9920136789105406</v>
+        <v>1.025706453908702</v>
       </c>
       <c r="D16">
-        <v>1.014602242953598</v>
+        <v>1.035341834605841</v>
       </c>
       <c r="E16">
-        <v>1.000757604945312</v>
+        <v>1.026108591639754</v>
       </c>
       <c r="F16">
-        <v>1.01207881194686</v>
+        <v>1.043197020035969</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043003033572534</v>
+        <v>1.036116843448148</v>
       </c>
       <c r="J16">
-        <v>1.020469968292517</v>
+        <v>1.032094729931085</v>
       </c>
       <c r="K16">
-        <v>1.028676842691141</v>
+        <v>1.038781694505488</v>
       </c>
       <c r="L16">
-        <v>1.015076556493457</v>
+        <v>1.02958173212816</v>
       </c>
       <c r="M16">
-        <v>1.026197303967842</v>
+        <v>1.046609077715825</v>
       </c>
       <c r="N16">
-        <v>1.010764336046491</v>
+        <v>1.014721315352506</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9935779351403532</v>
+        <v>1.026009566952847</v>
       </c>
       <c r="D17">
-        <v>1.015801851232812</v>
+        <v>1.035585347778309</v>
       </c>
       <c r="E17">
-        <v>1.001964660682642</v>
+        <v>1.026363165070512</v>
       </c>
       <c r="F17">
-        <v>1.013655781749543</v>
+        <v>1.043530311538672</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043520169440959</v>
+        <v>1.036193111617565</v>
       </c>
       <c r="J17">
-        <v>1.021285160620065</v>
+        <v>1.032259025659779</v>
       </c>
       <c r="K17">
-        <v>1.029538375626777</v>
+        <v>1.038952633804007</v>
       </c>
       <c r="L17">
-        <v>1.015938329749058</v>
+        <v>1.029762937585062</v>
       </c>
       <c r="M17">
-        <v>1.027428538488088</v>
+        <v>1.046870116932763</v>
       </c>
       <c r="N17">
-        <v>1.011036196729515</v>
+        <v>1.014775950440941</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9944841716112154</v>
+        <v>1.026186441249003</v>
       </c>
       <c r="D18">
-        <v>1.016497243562315</v>
+        <v>1.035727445528833</v>
       </c>
       <c r="E18">
-        <v>1.002664762704928</v>
+        <v>1.026511764300405</v>
       </c>
       <c r="F18">
-        <v>1.014570053852593</v>
+        <v>1.043724841512254</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043818681298021</v>
+        <v>1.036237471919451</v>
       </c>
       <c r="J18">
-        <v>1.021757192138331</v>
+        <v>1.032354848762454</v>
       </c>
       <c r="K18">
-        <v>1.030037162077602</v>
+        <v>1.039052317460319</v>
       </c>
       <c r="L18">
-        <v>1.016437656861219</v>
+        <v>1.029868660351143</v>
       </c>
       <c r="M18">
-        <v>1.028141940818764</v>
+        <v>1.047022426669137</v>
       </c>
       <c r="N18">
-        <v>1.011193615927209</v>
+        <v>1.014807813275299</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9947921417023842</v>
+        <v>1.026246763238564</v>
       </c>
       <c r="D19">
-        <v>1.016733629888013</v>
+        <v>1.035775907416085</v>
       </c>
       <c r="E19">
-        <v>1.002902816659184</v>
+        <v>1.02656245154052</v>
       </c>
       <c r="F19">
-        <v>1.014880867598294</v>
+        <v>1.043791192628538</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043919940379726</v>
+        <v>1.036252576300917</v>
       </c>
       <c r="J19">
-        <v>1.021917562528631</v>
+        <v>1.032387520598677</v>
       </c>
       <c r="K19">
-        <v>1.030206608870055</v>
+        <v>1.0390863031783</v>
       </c>
       <c r="L19">
-        <v>1.016607355615188</v>
+        <v>1.029904713904377</v>
       </c>
       <c r="M19">
-        <v>1.028384394961858</v>
+        <v>1.047074368774932</v>
       </c>
       <c r="N19">
-        <v>1.011247098294638</v>
+        <v>1.014818676835113</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9934107463256194</v>
+        <v>1.025977038167238</v>
       </c>
       <c r="D20">
-        <v>1.015673593271277</v>
+        <v>1.035559214833639</v>
       </c>
       <c r="E20">
-        <v>1.001835565782783</v>
+        <v>1.026335840270205</v>
       </c>
       <c r="F20">
-        <v>1.013487164408555</v>
+        <v>1.043494539396378</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043465009884418</v>
+        <v>1.036184941753238</v>
       </c>
       <c r="J20">
-        <v>1.021198057167969</v>
+        <v>1.032241399082019</v>
       </c>
       <c r="K20">
-        <v>1.029446328749301</v>
+        <v>1.038934295936086</v>
       </c>
       <c r="L20">
-        <v>1.015846215586721</v>
+        <v>1.029743492976603</v>
       </c>
       <c r="M20">
-        <v>1.027296932776648</v>
+        <v>1.046842104712705</v>
       </c>
       <c r="N20">
-        <v>1.011007148337573</v>
+        <v>1.01477008911529</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9888462146445306</v>
+        <v>1.025101004902626</v>
       </c>
       <c r="D21">
-        <v>1.012175937717436</v>
+        <v>1.034855443316254</v>
       </c>
       <c r="E21">
-        <v>0.9983187762834648</v>
+        <v>1.025600412465887</v>
       </c>
       <c r="F21">
-        <v>1.008890017575153</v>
+        <v>1.042531584724592</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041948936612976</v>
+        <v>1.035963580646754</v>
       </c>
       <c r="J21">
-        <v>1.018817788066592</v>
+        <v>1.031766254979282</v>
       </c>
       <c r="K21">
-        <v>1.026930247516071</v>
+        <v>1.038439846240566</v>
       </c>
       <c r="L21">
-        <v>1.013332070119885</v>
+        <v>1.0292196885963</v>
       </c>
       <c r="M21">
-        <v>1.023704900758624</v>
+        <v>1.046087583286061</v>
       </c>
       <c r="N21">
-        <v>1.0102133511902</v>
+        <v>1.014612069332783</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9859176689801787</v>
+        <v>1.02455088363179</v>
       </c>
       <c r="D22">
-        <v>1.009936011286465</v>
+        <v>1.034413513756514</v>
       </c>
       <c r="E22">
-        <v>0.9960701827754571</v>
+        <v>1.025139032068346</v>
       </c>
       <c r="F22">
-        <v>1.005946899466464</v>
+        <v>1.041927292752514</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04096656307982</v>
+        <v>1.035823276195466</v>
       </c>
       <c r="J22">
-        <v>1.017288639209006</v>
+        <v>1.031467451594285</v>
       </c>
       <c r="K22">
-        <v>1.025313170589859</v>
+        <v>1.03812877446343</v>
       </c>
       <c r="L22">
-        <v>1.011719894175907</v>
+        <v>1.02889062039701</v>
       </c>
       <c r="M22">
-        <v>1.021401460553399</v>
+        <v>1.04561364848406</v>
       </c>
       <c r="N22">
-        <v>1.009703408645155</v>
+        <v>1.014512675181517</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9874758595911844</v>
+        <v>1.024842448670596</v>
       </c>
       <c r="D23">
-        <v>1.011127402397946</v>
+        <v>1.034647735299219</v>
       </c>
       <c r="E23">
-        <v>0.9972658462164736</v>
+        <v>1.025383521939812</v>
       </c>
       <c r="F23">
-        <v>1.007512235072546</v>
+        <v>1.042247529091144</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041490152232611</v>
+        <v>1.035897760680864</v>
       </c>
       <c r="J23">
-        <v>1.018102430295353</v>
+        <v>1.031625858309354</v>
       </c>
       <c r="K23">
-        <v>1.026173817645294</v>
+        <v>1.038293697193525</v>
       </c>
       <c r="L23">
-        <v>1.012577590115394</v>
+        <v>1.029065039751972</v>
       </c>
       <c r="M23">
-        <v>1.022626929300617</v>
+        <v>1.045864845817828</v>
       </c>
       <c r="N23">
-        <v>1.009974790803808</v>
+        <v>1.014565369618154</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9934863107828231</v>
+        <v>1.025991736298136</v>
       </c>
       <c r="D24">
-        <v>1.015731560850634</v>
+        <v>1.035571022999352</v>
       </c>
       <c r="E24">
-        <v>1.001893910409139</v>
+        <v>1.026348186829023</v>
       </c>
       <c r="F24">
-        <v>1.013563372443073</v>
+        <v>1.043510702896543</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043489943759703</v>
+        <v>1.036188633751544</v>
       </c>
       <c r="J24">
-        <v>1.021237426135131</v>
+        <v>1.032249363798101</v>
       </c>
       <c r="K24">
-        <v>1.029487932286069</v>
+        <v>1.038942582098476</v>
       </c>
       <c r="L24">
-        <v>1.015887848289841</v>
+        <v>1.029752279069728</v>
       </c>
       <c r="M24">
-        <v>1.027356414408123</v>
+        <v>1.046854762074988</v>
       </c>
       <c r="N24">
-        <v>1.011020277612434</v>
+        <v>1.014772737611218</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000220524728066</v>
+        <v>1.0273283005845</v>
       </c>
       <c r="D25">
-        <v>1.020905861581435</v>
+        <v>1.036644818668566</v>
       </c>
       <c r="E25">
-        <v>1.007110269600614</v>
+        <v>1.027471968203913</v>
       </c>
       <c r="F25">
-        <v>1.020368975684303</v>
+        <v>1.044981507474755</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045688460625547</v>
+        <v>1.036521244421398</v>
       </c>
       <c r="J25">
-        <v>1.024740469614877</v>
+        <v>1.032972595866435</v>
       </c>
       <c r="K25">
-        <v>1.033188083354227</v>
+        <v>1.039694695292042</v>
       </c>
       <c r="L25">
-        <v>1.019599201491926</v>
+        <v>1.030550902210649</v>
       </c>
       <c r="M25">
-        <v>1.032659109250767</v>
+        <v>1.048005458728663</v>
       </c>
       <c r="N25">
-        <v>1.012188503162448</v>
+        <v>1.015013183178443</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_189/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_189/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028396595994657</v>
+        <v>1.005412656178485</v>
       </c>
       <c r="D2">
-        <v>1.037503117341549</v>
+        <v>1.024906213466976</v>
       </c>
       <c r="E2">
-        <v>1.028371722273546</v>
+        <v>1.011155388806233</v>
       </c>
       <c r="F2">
-        <v>1.046158541185202</v>
+        <v>1.025635897207716</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036782525493392</v>
+        <v>1.04734839296245</v>
       </c>
       <c r="J2">
-        <v>1.03354914486589</v>
+        <v>1.027432672135844</v>
       </c>
       <c r="K2">
-        <v>1.040293816227196</v>
+        <v>1.036029136270457</v>
       </c>
       <c r="L2">
-        <v>1.031188732285669</v>
+        <v>1.022461468577216</v>
       </c>
       <c r="M2">
-        <v>1.048924760530941</v>
+        <v>1.036749272775369</v>
       </c>
       <c r="N2">
-        <v>1.015204788863329</v>
+        <v>1.013086257214857</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029173548958836</v>
+        <v>1.009085603526599</v>
       </c>
       <c r="D3">
-        <v>1.038127352388706</v>
+        <v>1.027741636696578</v>
       </c>
       <c r="E3">
-        <v>1.029026977326274</v>
+        <v>1.014029681549159</v>
       </c>
       <c r="F3">
-        <v>1.047015410621764</v>
+        <v>1.029372768916248</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036969898359139</v>
+        <v>1.048501602796455</v>
       </c>
       <c r="J3">
-        <v>1.03396757382998</v>
+        <v>1.029331613320456</v>
       </c>
       <c r="K3">
-        <v>1.040728363716059</v>
+        <v>1.038031448493642</v>
       </c>
       <c r="L3">
-        <v>1.031652320913652</v>
+        <v>1.024486142755771</v>
       </c>
       <c r="M3">
-        <v>1.049593098310582</v>
+        <v>1.039643122968324</v>
       </c>
       <c r="N3">
-        <v>1.015343802872476</v>
+        <v>1.013719417426898</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02967686913955</v>
+        <v>1.011419470686476</v>
       </c>
       <c r="D4">
-        <v>1.038531741333731</v>
+        <v>1.029545649736427</v>
       </c>
       <c r="E4">
-        <v>1.029451863654791</v>
+        <v>1.015861747901768</v>
       </c>
       <c r="F4">
-        <v>1.047570886002336</v>
+        <v>1.031752230622694</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037090052961926</v>
+        <v>1.049224409706879</v>
       </c>
       <c r="J4">
-        <v>1.034238226559727</v>
+        <v>1.030535508307238</v>
       </c>
       <c r="K4">
-        <v>1.041009320332642</v>
+        <v>1.039300097275006</v>
       </c>
       <c r="L4">
-        <v>1.031952501493061</v>
+        <v>1.025772431899586</v>
       </c>
       <c r="M4">
-        <v>1.050025937035922</v>
+        <v>1.04148196212251</v>
       </c>
       <c r="N4">
-        <v>1.01543370115611</v>
+        <v>1.014120787280735</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029888601902568</v>
+        <v>1.012390684900568</v>
       </c>
       <c r="D5">
-        <v>1.038701856400068</v>
+        <v>1.030296894160382</v>
       </c>
       <c r="E5">
-        <v>1.029630697621868</v>
+        <v>1.016625474835112</v>
       </c>
       <c r="F5">
-        <v>1.047804650822118</v>
+        <v>1.032743595104795</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03714030459179</v>
+        <v>1.049522772827853</v>
       </c>
       <c r="J5">
-        <v>1.03435198403223</v>
+        <v>1.031035816625563</v>
       </c>
       <c r="K5">
-        <v>1.041127379325015</v>
+        <v>1.039827123369021</v>
       </c>
       <c r="L5">
-        <v>1.032078745728962</v>
+        <v>1.026307626252635</v>
       </c>
       <c r="M5">
-        <v>1.050207991503741</v>
+        <v>1.042247156398737</v>
       </c>
       <c r="N5">
-        <v>1.015471481231301</v>
+        <v>1.014287574706185</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029924160743819</v>
+        <v>1.012553181355039</v>
       </c>
       <c r="D6">
-        <v>1.038730425861348</v>
+        <v>1.030422616652156</v>
       </c>
       <c r="E6">
-        <v>1.02966073699363</v>
+        <v>1.016753333428576</v>
       </c>
       <c r="F6">
-        <v>1.047843915151596</v>
+        <v>1.032909531622797</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037148726710147</v>
+        <v>1.049572549223386</v>
       </c>
       <c r="J6">
-        <v>1.034371082912848</v>
+        <v>1.031119483886545</v>
       </c>
       <c r="K6">
-        <v>1.04114719867392</v>
+        <v>1.039915247241228</v>
       </c>
       <c r="L6">
-        <v>1.032099945484094</v>
+        <v>1.026397165532755</v>
       </c>
       <c r="M6">
-        <v>1.050238564421085</v>
+        <v>1.042375181240725</v>
       </c>
       <c r="N6">
-        <v>1.015477823886975</v>
+        <v>1.014315466065894</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029679697787208</v>
+        <v>1.01143248678435</v>
       </c>
       <c r="D7">
-        <v>1.038534013989894</v>
+        <v>1.029555715803727</v>
       </c>
       <c r="E7">
-        <v>1.029454252413369</v>
+        <v>1.015871978061654</v>
       </c>
       <c r="F7">
-        <v>1.047574008627196</v>
+        <v>1.031765512148819</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037090725454718</v>
+        <v>1.049228417954682</v>
       </c>
       <c r="J7">
-        <v>1.034239746692234</v>
+        <v>1.030542216096402</v>
       </c>
       <c r="K7">
-        <v>1.041010898061192</v>
+        <v>1.039307164043461</v>
       </c>
       <c r="L7">
-        <v>1.031954188186631</v>
+        <v>1.025779604865717</v>
       </c>
       <c r="M7">
-        <v>1.050028369308895</v>
+        <v>1.041492217274889</v>
       </c>
       <c r="N7">
-        <v>1.015434206027621</v>
+        <v>1.014123023500014</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028659049773856</v>
+        <v>1.006662985607032</v>
       </c>
       <c r="D8">
-        <v>1.037713982648078</v>
+        <v>1.025870927989708</v>
       </c>
       <c r="E8">
-        <v>1.02859298284202</v>
+        <v>1.012132634891278</v>
       </c>
       <c r="F8">
-        <v>1.046447911042402</v>
+        <v>1.026906935071288</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036846073829113</v>
+        <v>1.047743029495976</v>
       </c>
       <c r="J8">
-        <v>1.033690574576061</v>
+        <v>1.028079658629734</v>
       </c>
       <c r="K8">
-        <v>1.04044071927219</v>
+        <v>1.036711503200391</v>
       </c>
       <c r="L8">
-        <v>1.031345360370556</v>
+        <v>1.023150732096152</v>
       </c>
       <c r="M8">
-        <v>1.049150548763816</v>
+        <v>1.037734363802662</v>
       </c>
       <c r="N8">
-        <v>1.015251780013753</v>
+        <v>1.013301988607389</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026865057268223</v>
+        <v>0.997916937260544</v>
       </c>
       <c r="D9">
-        <v>1.036272643238473</v>
+        <v>1.019134047173247</v>
       </c>
       <c r="E9">
-        <v>1.027082235645842</v>
+        <v>1.005322132312472</v>
       </c>
       <c r="F9">
-        <v>1.04447151408279</v>
+        <v>1.018037798500591</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036406670139277</v>
+        <v>1.044941847485058</v>
       </c>
       <c r="J9">
-        <v>1.032722163307501</v>
+        <v>1.023543468890781</v>
       </c>
       <c r="K9">
-        <v>1.039434331875316</v>
+        <v>1.031924132374039</v>
       </c>
       <c r="L9">
-        <v>1.030274181407679</v>
+        <v>1.018329447778491</v>
       </c>
       <c r="M9">
-        <v>1.047606702103299</v>
+        <v>1.030844850098056</v>
       </c>
       <c r="N9">
-        <v>1.014929935750306</v>
+        <v>1.011789322847709</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025672209217339</v>
+        <v>0.9918360582916301</v>
       </c>
       <c r="D10">
-        <v>1.035314323523389</v>
+        <v>1.014466085061116</v>
       </c>
       <c r="E10">
-        <v>1.026079837437543</v>
+        <v>1.0006206551248</v>
       </c>
       <c r="F10">
-        <v>1.043159372078729</v>
+        <v>1.011899839594084</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036108207432216</v>
+        <v>1.042944166145621</v>
       </c>
       <c r="J10">
-        <v>1.032076161905519</v>
+        <v>1.020377371324648</v>
       </c>
       <c r="K10">
-        <v>1.03876237372915</v>
+        <v>1.028578971406669</v>
       </c>
       <c r="L10">
-        <v>1.029561258083202</v>
+        <v>1.014978712486614</v>
       </c>
       <c r="M10">
-        <v>1.046579584576933</v>
+        <v>1.026057512092636</v>
       </c>
       <c r="N10">
-        <v>1.014715140411139</v>
+        <v>1.010733455695565</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025156462081797</v>
+        <v>0.9891387506192606</v>
       </c>
       <c r="D11">
-        <v>1.034899994555398</v>
+        <v>1.012399865287104</v>
       </c>
       <c r="E11">
-        <v>1.025646942692955</v>
+        <v>0.9985437207300395</v>
       </c>
       <c r="F11">
-        <v>1.042592520338202</v>
+        <v>1.0091842789066</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035977669632167</v>
+        <v>1.042046665563791</v>
       </c>
       <c r="J11">
-        <v>1.031796358933096</v>
+        <v>1.018970456319517</v>
       </c>
       <c r="K11">
-        <v>1.03847118080998</v>
+        <v>1.027091666585256</v>
       </c>
       <c r="L11">
-        <v>1.02925285592062</v>
+        <v>1.013493152699556</v>
       </c>
       <c r="M11">
-        <v>1.04613535515377</v>
+        <v>1.023935046992632</v>
       </c>
       <c r="N11">
-        <v>1.014622082269961</v>
+        <v>1.010264263987672</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024965007247248</v>
+        <v>0.9881267556089852</v>
       </c>
       <c r="D12">
-        <v>1.034746190872969</v>
+        <v>1.011625350687895</v>
       </c>
       <c r="E12">
-        <v>1.025486321099893</v>
+        <v>0.9977658066105574</v>
       </c>
       <c r="F12">
-        <v>1.042382165958545</v>
+        <v>1.008166524792932</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035928987400708</v>
+        <v>1.041708267630435</v>
       </c>
       <c r="J12">
-        <v>1.03169241692192</v>
+        <v>1.018442253650002</v>
       </c>
       <c r="K12">
-        <v>1.038362985553196</v>
+        <v>1.026533165780118</v>
       </c>
       <c r="L12">
-        <v>1.029138347893506</v>
+        <v>1.012935935780602</v>
       </c>
       <c r="M12">
-        <v>1.045970428395712</v>
+        <v>1.02313892187549</v>
       </c>
       <c r="N12">
-        <v>1.014587509234082</v>
+        <v>1.010088116080825</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025006069652503</v>
+        <v>0.9883442961706291</v>
       </c>
       <c r="D13">
-        <v>1.034779177885244</v>
+        <v>1.011791809313527</v>
       </c>
       <c r="E13">
-        <v>1.025520767035641</v>
+        <v>0.9979329680167819</v>
       </c>
       <c r="F13">
-        <v>1.042427278620861</v>
+        <v>1.008385253662496</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035939438700616</v>
+        <v>1.041781084999859</v>
       </c>
       <c r="J13">
-        <v>1.031714713300717</v>
+        <v>1.018555812314668</v>
       </c>
       <c r="K13">
-        <v>1.038386195284744</v>
+        <v>1.026653243456697</v>
       </c>
       <c r="L13">
-        <v>1.029162908137137</v>
+        <v>1.013055709109691</v>
       </c>
       <c r="M13">
-        <v>1.04600580210355</v>
+        <v>1.023310049116982</v>
       </c>
       <c r="N13">
-        <v>1.014594925581425</v>
+        <v>1.010125986111678</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025140633975878</v>
+        <v>0.9890553073750307</v>
       </c>
       <c r="D14">
-        <v>1.034887279114435</v>
+        <v>1.012335988683576</v>
       </c>
       <c r="E14">
-        <v>1.025633662084926</v>
+        <v>0.9984795512226011</v>
       </c>
       <c r="F14">
-        <v>1.042575128295599</v>
+        <v>1.009100338485676</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035973649510216</v>
+        <v>1.04201879688509</v>
       </c>
       <c r="J14">
-        <v>1.03178776726535</v>
+        <v>1.018926910639202</v>
       </c>
       <c r="K14">
-        <v>1.038462238026292</v>
+        <v>1.027045625435435</v>
       </c>
       <c r="L14">
-        <v>1.029243389699182</v>
+        <v>1.013447204642564</v>
       </c>
       <c r="M14">
-        <v>1.046121720617498</v>
+        <v>1.023869398919442</v>
       </c>
       <c r="N14">
-        <v>1.01461922459416</v>
+        <v>1.010249742080068</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02522355900445</v>
+        <v>0.9894920335204884</v>
       </c>
       <c r="D15">
-        <v>1.034953896700107</v>
+        <v>1.012670335766557</v>
       </c>
       <c r="E15">
-        <v>1.025703243671014</v>
+        <v>0.9988154565976449</v>
       </c>
       <c r="F15">
-        <v>1.042666249871686</v>
+        <v>1.009539711354276</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035994702147582</v>
+        <v>1.042164588527134</v>
       </c>
       <c r="J15">
-        <v>1.031832776841381</v>
+        <v>1.019154806558201</v>
       </c>
       <c r="K15">
-        <v>1.038509086106307</v>
+        <v>1.02728657663122</v>
       </c>
       <c r="L15">
-        <v>1.029292983219892</v>
+        <v>1.013687694244243</v>
       </c>
       <c r="M15">
-        <v>1.046193152472238</v>
+        <v>1.024212996739288</v>
       </c>
       <c r="N15">
-        <v>1.014634195091092</v>
+        <v>1.010325742453657</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025706453908702</v>
+        <v>0.9920136789105404</v>
       </c>
       <c r="D16">
-        <v>1.035341834605841</v>
+        <v>1.014602242953598</v>
       </c>
       <c r="E16">
-        <v>1.026108591639754</v>
+        <v>1.000757604945311</v>
       </c>
       <c r="F16">
-        <v>1.043197020035969</v>
+        <v>1.01207881194686</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036116843448148</v>
+        <v>1.043003033572535</v>
       </c>
       <c r="J16">
-        <v>1.032094729931085</v>
+        <v>1.020469968292517</v>
       </c>
       <c r="K16">
-        <v>1.038781694505488</v>
+        <v>1.028676842691141</v>
       </c>
       <c r="L16">
-        <v>1.02958173212816</v>
+        <v>1.015076556493457</v>
       </c>
       <c r="M16">
-        <v>1.046609077715825</v>
+        <v>1.026197303967842</v>
       </c>
       <c r="N16">
-        <v>1.014721315352506</v>
+        <v>1.01076433604649</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026009566952847</v>
+        <v>0.9935779351403534</v>
       </c>
       <c r="D17">
-        <v>1.035585347778309</v>
+        <v>1.015801851232812</v>
       </c>
       <c r="E17">
-        <v>1.026363165070512</v>
+        <v>1.001964660682642</v>
       </c>
       <c r="F17">
-        <v>1.043530311538672</v>
+        <v>1.013655781749544</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036193111617565</v>
+        <v>1.043520169440959</v>
       </c>
       <c r="J17">
-        <v>1.032259025659779</v>
+        <v>1.021285160620065</v>
       </c>
       <c r="K17">
-        <v>1.038952633804007</v>
+        <v>1.029538375626777</v>
       </c>
       <c r="L17">
-        <v>1.029762937585062</v>
+        <v>1.015938329749058</v>
       </c>
       <c r="M17">
-        <v>1.046870116932763</v>
+        <v>1.027428538488089</v>
       </c>
       <c r="N17">
-        <v>1.014775950440941</v>
+        <v>1.011036196729515</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026186441249003</v>
+        <v>0.9944841716112152</v>
       </c>
       <c r="D18">
-        <v>1.035727445528833</v>
+        <v>1.016497243562315</v>
       </c>
       <c r="E18">
-        <v>1.026511764300405</v>
+        <v>1.002664762704929</v>
       </c>
       <c r="F18">
-        <v>1.043724841512254</v>
+        <v>1.014570053852593</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036237471919451</v>
+        <v>1.043818681298021</v>
       </c>
       <c r="J18">
-        <v>1.032354848762454</v>
+        <v>1.021757192138331</v>
       </c>
       <c r="K18">
-        <v>1.039052317460319</v>
+        <v>1.030037162077602</v>
       </c>
       <c r="L18">
-        <v>1.029868660351143</v>
+        <v>1.016437656861219</v>
       </c>
       <c r="M18">
-        <v>1.047022426669137</v>
+        <v>1.028141940818764</v>
       </c>
       <c r="N18">
-        <v>1.014807813275299</v>
+        <v>1.011193615927209</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026246763238564</v>
+        <v>0.9947921417023845</v>
       </c>
       <c r="D19">
-        <v>1.035775907416085</v>
+        <v>1.016733629888013</v>
       </c>
       <c r="E19">
-        <v>1.02656245154052</v>
+        <v>1.002902816659184</v>
       </c>
       <c r="F19">
-        <v>1.043791192628538</v>
+        <v>1.014880867598295</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036252576300917</v>
+        <v>1.043919940379726</v>
       </c>
       <c r="J19">
-        <v>1.032387520598677</v>
+        <v>1.021917562528631</v>
       </c>
       <c r="K19">
-        <v>1.0390863031783</v>
+        <v>1.030206608870056</v>
       </c>
       <c r="L19">
-        <v>1.029904713904377</v>
+        <v>1.016607355615189</v>
       </c>
       <c r="M19">
-        <v>1.047074368774932</v>
+        <v>1.028384394961859</v>
       </c>
       <c r="N19">
-        <v>1.014818676835113</v>
+        <v>1.011247098294638</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025977038167238</v>
+        <v>0.9934107463256188</v>
       </c>
       <c r="D20">
-        <v>1.035559214833639</v>
+        <v>1.015673593271276</v>
       </c>
       <c r="E20">
-        <v>1.026335840270205</v>
+        <v>1.001835565782782</v>
       </c>
       <c r="F20">
-        <v>1.043494539396378</v>
+        <v>1.013487164408554</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036184941753238</v>
+        <v>1.043465009884418</v>
       </c>
       <c r="J20">
-        <v>1.032241399082019</v>
+        <v>1.021198057167969</v>
       </c>
       <c r="K20">
-        <v>1.038934295936086</v>
+        <v>1.0294463287493</v>
       </c>
       <c r="L20">
-        <v>1.029743492976603</v>
+        <v>1.01584621558672</v>
       </c>
       <c r="M20">
-        <v>1.046842104712705</v>
+        <v>1.027296932776647</v>
       </c>
       <c r="N20">
-        <v>1.01477008911529</v>
+        <v>1.011007148337573</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025101004902626</v>
+        <v>0.9888462146445308</v>
       </c>
       <c r="D21">
-        <v>1.034855443316254</v>
+        <v>1.012175937717436</v>
       </c>
       <c r="E21">
-        <v>1.025600412465887</v>
+        <v>0.9983187762834647</v>
       </c>
       <c r="F21">
-        <v>1.042531584724592</v>
+        <v>1.008890017575153</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035963580646754</v>
+        <v>1.041948936612977</v>
       </c>
       <c r="J21">
-        <v>1.031766254979282</v>
+        <v>1.018817788066592</v>
       </c>
       <c r="K21">
-        <v>1.038439846240566</v>
+        <v>1.026930247516071</v>
       </c>
       <c r="L21">
-        <v>1.0292196885963</v>
+        <v>1.013332070119885</v>
       </c>
       <c r="M21">
-        <v>1.046087583286061</v>
+        <v>1.023704900758625</v>
       </c>
       <c r="N21">
-        <v>1.014612069332783</v>
+        <v>1.0102133511902</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02455088363179</v>
+        <v>0.9859176689801793</v>
       </c>
       <c r="D22">
-        <v>1.034413513756514</v>
+        <v>1.009936011286466</v>
       </c>
       <c r="E22">
-        <v>1.025139032068346</v>
+        <v>0.9960701827754578</v>
       </c>
       <c r="F22">
-        <v>1.041927292752514</v>
+        <v>1.005946899466465</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035823276195466</v>
+        <v>1.04096656307982</v>
       </c>
       <c r="J22">
-        <v>1.031467451594285</v>
+        <v>1.017288639209006</v>
       </c>
       <c r="K22">
-        <v>1.03812877446343</v>
+        <v>1.025313170589859</v>
       </c>
       <c r="L22">
-        <v>1.02889062039701</v>
+        <v>1.011719894175908</v>
       </c>
       <c r="M22">
-        <v>1.04561364848406</v>
+        <v>1.0214014605534</v>
       </c>
       <c r="N22">
-        <v>1.014512675181517</v>
+        <v>1.009703408645155</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024842448670596</v>
+        <v>0.9874758595911831</v>
       </c>
       <c r="D23">
-        <v>1.034647735299219</v>
+        <v>1.011127402397944</v>
       </c>
       <c r="E23">
-        <v>1.025383521939812</v>
+        <v>0.9972658462164727</v>
       </c>
       <c r="F23">
-        <v>1.042247529091144</v>
+        <v>1.007512235072544</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035897760680864</v>
+        <v>1.04149015223261</v>
       </c>
       <c r="J23">
-        <v>1.031625858309354</v>
+        <v>1.018102430295352</v>
       </c>
       <c r="K23">
-        <v>1.038293697193525</v>
+        <v>1.026173817645293</v>
       </c>
       <c r="L23">
-        <v>1.029065039751972</v>
+        <v>1.012577590115393</v>
       </c>
       <c r="M23">
-        <v>1.045864845817828</v>
+        <v>1.022626929300615</v>
       </c>
       <c r="N23">
-        <v>1.014565369618154</v>
+        <v>1.009974790803808</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025991736298136</v>
+        <v>0.9934863107828233</v>
       </c>
       <c r="D24">
-        <v>1.035571022999352</v>
+        <v>1.015731560850635</v>
       </c>
       <c r="E24">
-        <v>1.026348186829023</v>
+        <v>1.001893910409139</v>
       </c>
       <c r="F24">
-        <v>1.043510702896543</v>
+        <v>1.013563372443073</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036188633751544</v>
+        <v>1.043489943759703</v>
       </c>
       <c r="J24">
-        <v>1.032249363798101</v>
+        <v>1.021237426135131</v>
       </c>
       <c r="K24">
-        <v>1.038942582098476</v>
+        <v>1.029487932286069</v>
       </c>
       <c r="L24">
-        <v>1.029752279069728</v>
+        <v>1.015887848289841</v>
       </c>
       <c r="M24">
-        <v>1.046854762074988</v>
+        <v>1.027356414408122</v>
       </c>
       <c r="N24">
-        <v>1.014772737611218</v>
+        <v>1.011020277612434</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.0273283005845</v>
+        <v>1.000220524728065</v>
       </c>
       <c r="D25">
-        <v>1.036644818668566</v>
+        <v>1.020905861581435</v>
       </c>
       <c r="E25">
-        <v>1.027471968203913</v>
+        <v>1.007110269600613</v>
       </c>
       <c r="F25">
-        <v>1.044981507474755</v>
+        <v>1.020368975684303</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036521244421398</v>
+        <v>1.045688460625547</v>
       </c>
       <c r="J25">
-        <v>1.032972595866435</v>
+        <v>1.024740469614876</v>
       </c>
       <c r="K25">
-        <v>1.039694695292042</v>
+        <v>1.033188083354227</v>
       </c>
       <c r="L25">
-        <v>1.030550902210649</v>
+        <v>1.019599201491925</v>
       </c>
       <c r="M25">
-        <v>1.048005458728663</v>
+        <v>1.032659109250767</v>
       </c>
       <c r="N25">
-        <v>1.015013183178443</v>
+        <v>1.012188503162447</v>
       </c>
     </row>
   </sheetData>
